--- a/NTLA.xlsx
+++ b/NTLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD412BA-9BCA-49FB-9C15-1FEAC89EFFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A297B582-D086-4461-AB9D-6B61C09B50F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{97EF8616-01F0-4729-B92E-E47700892481}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{97EF8616-01F0-4729-B92E-E47700892481}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>NTLA</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Ven Cell, …</t>
+  </si>
+  <si>
+    <t>numbers in mio USD</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,20 +220,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -239,6 +232,27 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,33 +391,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,248 +755,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE70A57F-0C22-41A6-833E-DB758162E204}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C12" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>23.15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <v>96.475420999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <f>K5*K4</f>
         <v>2233.4059961499997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f>171.979+619.315+162.09</f>
         <v>953.38400000000013</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f>18.763+92.1</f>
         <v>110.863</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <f>K6-K7+K8</f>
         <v>1390.8849961499998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E15" s="12"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -997,66 +1015,67 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
